--- a/biology/Zoologie/Gerboise_à_quatre_doigts/Gerboise_à_quatre_doigts.xlsx
+++ b/biology/Zoologie/Gerboise_à_quatre_doigts/Gerboise_à_quatre_doigts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gerboise_%C3%A0_quatre_doigts</t>
+          <t>Gerboise_à_quatre_doigts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allactaga tetradactyla
 La Gerboise à quatre doigts (Allactaga tetradactyla) est une espèce de la famille des Dipodidés. Cette gerboise vit en Égypte et en Libye. L'Union internationale pour la conservation de la nature (UICN) considère que les données actuelles sur cette espèce sont insuffisantes pour déterminer son statut.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gerboise_%C3%A0_quatre_doigts</t>
+          <t>Gerboise_à_quatre_doigts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une gerboise de couleur sable possédant 4 doigts à chaque patte et un nez retroussé. Elle possède une longue queue terminée de blanc
-Taille
-Queue : 15-20 cm
-Corps : 24-30 cm
-Poids : 20-40 g
 </t>
         </is>
       </c>
@@ -529,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gerboise_%C3%A0_quatre_doigts</t>
+          <t>Gerboise_à_quatre_doigts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans les plaines de graviers entre Alexandrie et le golfe de Syrte. 
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queue : 15-20 cm
+Corps : 24-30 cm
+Poids : 20-40 g
 </t>
         </is>
       </c>
@@ -560,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gerboise_%C3%A0_quatre_doigts</t>
+          <t>Gerboise_à_quatre_doigts</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +593,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les plaines de graviers entre Alexandrie et le golfe de Syrte. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gerboise_à_quatre_doigts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gerboise_%C3%A0_quatre_doigts</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Graines et racines de graminées.
 </t>
